--- a/Experimentos/teste_geral/Dataset5/statistic_best_per_experiment_fitness.xlsx
+++ b/Experimentos/teste_geral/Dataset5/statistic_best_per_experiment_fitness.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Documents\ESCOLA\2ano\2semestre\INTELIGENCIA-ARTIFICIAL\projeto-IA\Experimentos\teste_geral\Dataset5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1883E2AF-E8C3-4A7A-919A-79AFBCD56C77}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B610AE97-79EE-424C-AD38-DB19A749A3F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="2850" yWindow="2850" windowWidth="14400" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="statistic_best_per_experiment_f" sheetId="1" r:id="rId1"/>
@@ -55,12 +55,6 @@
     <t>Swap</t>
   </si>
   <si>
-    <t>Scrumble</t>
-  </si>
-  <si>
-    <t>Inversion</t>
-  </si>
-  <si>
     <t>OX1</t>
   </si>
   <si>
@@ -84,11 +78,17 @@
   <si>
     <t>PUZZLE 5 - BEST PER EXPERIMENT</t>
   </si>
+  <si>
+    <t>Inversion</t>
+  </si>
+  <si>
+    <t>Scramble</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -574,8 +574,9 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -638,22 +639,22 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
-  <autoFilter ref="A2:J258"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A2:J258" totalsRowShown="0">
+  <autoFilter ref="A2:J258" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:J258">
     <sortCondition ref="I2:I258"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Population size:"/>
-    <tableColumn id="2" name="Max generations:"/>
-    <tableColumn id="3" name="Selection:"/>
-    <tableColumn id="4" name="Recombination:"/>
-    <tableColumn id="5" name="Recombination prob,:"/>
-    <tableColumn id="6" name="Mutation:"/>
-    <tableColumn id="7" name="Mutation prob,:"/>
-    <tableColumn id="8" name="Coluna1"/>
-    <tableColumn id="9" name="Fitness:"/>
-    <tableColumn id="10" name="Tempo:"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Population size:"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Max generations:"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Selection:"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Recombination:"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Recombination prob,:"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Mutation:"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Mutation prob,:"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Coluna1"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Fitness:"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Tempo:"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -955,11 +956,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J258"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O45" sqref="O45"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="A131" sqref="A131:J258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -977,18 +978,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="1"/>
+      <c r="A1" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -1004,16 +1005,16 @@
         <v>3</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
         <v>4</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
         <v>5</v>
@@ -1059,7 +1060,7 @@
         <v>3500</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
         <v>8</v>
@@ -1146,10 +1147,10 @@
         <v>3500</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E7">
         <v>0.7</v>
@@ -1175,10 +1176,10 @@
         <v>3500</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E8">
         <v>0.7</v>
@@ -1204,10 +1205,10 @@
         <v>3500</v>
       </c>
       <c r="C9" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E9">
         <v>0.8</v>
@@ -1291,7 +1292,7 @@
         <v>3500</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D12" t="s">
         <v>8</v>
@@ -1320,10 +1321,10 @@
         <v>3500</v>
       </c>
       <c r="C13" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13">
         <v>0.7</v>
@@ -1349,7 +1350,7 @@
         <v>3500</v>
       </c>
       <c r="C14" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D14" t="s">
         <v>8</v>
@@ -1378,7 +1379,7 @@
         <v>3500</v>
       </c>
       <c r="C15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="s">
         <v>8</v>
@@ -1439,7 +1440,7 @@
         <v>7</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>0.8</v>
@@ -1465,10 +1466,10 @@
         <v>3500</v>
       </c>
       <c r="C18" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E18">
         <v>0.8</v>
@@ -1526,7 +1527,7 @@
         <v>7</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E20">
         <v>0.8</v>
@@ -1552,7 +1553,7 @@
         <v>3500</v>
       </c>
       <c r="C21" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D21" t="s">
         <v>8</v>
@@ -1581,10 +1582,10 @@
         <v>3500</v>
       </c>
       <c r="C22" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D22" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E22">
         <v>0.7</v>
@@ -1610,10 +1611,10 @@
         <v>3500</v>
       </c>
       <c r="C23" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E23">
         <v>0.7</v>
@@ -1642,7 +1643,7 @@
         <v>7</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E24">
         <v>0.8</v>
@@ -1668,10 +1669,10 @@
         <v>3500</v>
       </c>
       <c r="C25" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D25" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E25">
         <v>0.7</v>
@@ -1697,10 +1698,10 @@
         <v>3500</v>
       </c>
       <c r="C26" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E26">
         <v>0.8</v>
@@ -1726,10 +1727,10 @@
         <v>3500</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E27">
         <v>0.8</v>
@@ -1758,7 +1759,7 @@
         <v>7</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E28">
         <v>0.7</v>
@@ -1784,10 +1785,10 @@
         <v>3500</v>
       </c>
       <c r="C29" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D29" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E29">
         <v>0.8</v>
@@ -1816,7 +1817,7 @@
         <v>7</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E30">
         <v>0.7</v>
@@ -1845,7 +1846,7 @@
         <v>7</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E31">
         <v>0.7</v>
@@ -1871,10 +1872,10 @@
         <v>3500</v>
       </c>
       <c r="C32" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E32">
         <v>0.7</v>
@@ -1900,10 +1901,10 @@
         <v>3500</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D33" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E33">
         <v>0.8</v>
@@ -1929,7 +1930,7 @@
         <v>3500</v>
       </c>
       <c r="C34" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D34" t="s">
         <v>8</v>
@@ -1958,10 +1959,10 @@
         <v>3500</v>
       </c>
       <c r="C35" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D35" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E35">
         <v>0.7</v>
@@ -1987,10 +1988,10 @@
         <v>3500</v>
       </c>
       <c r="C36" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D36" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E36">
         <v>0.7</v>
@@ -2016,10 +2017,10 @@
         <v>3500</v>
       </c>
       <c r="C37" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D37" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E37">
         <v>0.8</v>
@@ -2048,7 +2049,7 @@
         <v>7</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E38">
         <v>0.7</v>
@@ -2074,10 +2075,10 @@
         <v>3500</v>
       </c>
       <c r="C39" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D39" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E39">
         <v>0.8</v>
@@ -2097,7 +2098,7 @@
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B40">
         <v>3500</v>
@@ -2109,10 +2110,10 @@
         <v>8</v>
       </c>
       <c r="E40">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G40">
         <v>0.2</v>
@@ -2121,7 +2122,7 @@
         <v>168</v>
       </c>
       <c r="J40">
-        <v>3883</v>
+        <v>7444</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
@@ -2135,10 +2136,10 @@
         <v>7</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E41">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F41" t="s">
         <v>10</v>
@@ -2150,7 +2151,7 @@
         <v>168</v>
       </c>
       <c r="J41">
-        <v>4332</v>
+        <v>3883</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
@@ -2161,10 +2162,10 @@
         <v>3500</v>
       </c>
       <c r="C42" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E42">
         <v>0.8</v>
@@ -2173,42 +2174,42 @@
         <v>10</v>
       </c>
       <c r="G42">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I42">
         <v>168</v>
       </c>
       <c r="J42">
-        <v>3525</v>
+        <v>4332</v>
       </c>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B43">
         <v>3500</v>
       </c>
       <c r="C43" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D43" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E43">
         <v>0.8</v>
       </c>
       <c r="F43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G43">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I43">
         <v>168</v>
       </c>
       <c r="J43">
-        <v>7444</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
@@ -2219,7 +2220,7 @@
         <v>3500</v>
       </c>
       <c r="C44" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
         <v>8</v>
@@ -2248,7 +2249,7 @@
         <v>3500</v>
       </c>
       <c r="C45" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D45" t="s">
         <v>8</v>
@@ -2277,10 +2278,10 @@
         <v>3500</v>
       </c>
       <c r="C46" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D46" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E46">
         <v>0.7</v>
@@ -2306,10 +2307,10 @@
         <v>3500</v>
       </c>
       <c r="C47" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D47" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E47">
         <v>0.8</v>
@@ -2335,10 +2336,10 @@
         <v>3500</v>
       </c>
       <c r="C48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D48" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E48">
         <v>0.7</v>
@@ -2364,10 +2365,10 @@
         <v>3500</v>
       </c>
       <c r="C49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D49" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E49">
         <v>0.7</v>
@@ -2399,19 +2400,19 @@
         <v>8</v>
       </c>
       <c r="E50">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F50" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G50">
         <v>0.2</v>
       </c>
       <c r="I50">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J50">
-        <v>8076</v>
+        <v>7635</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.25">
@@ -2422,25 +2423,25 @@
         <v>3500</v>
       </c>
       <c r="C51" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D51" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E51">
         <v>0.8</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G51">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I51">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="J51">
-        <v>6926</v>
+        <v>8384</v>
       </c>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.25">
@@ -2451,25 +2452,25 @@
         <v>3500</v>
       </c>
       <c r="C52" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E52">
         <v>0.8</v>
       </c>
       <c r="F52" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G52">
         <v>0.2</v>
       </c>
       <c r="I52">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="J52">
-        <v>10104</v>
+        <v>6926</v>
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
@@ -2483,27 +2484,27 @@
         <v>7</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E53">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F53" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G53">
         <v>0.2</v>
       </c>
       <c r="I53">
-        <v>188</v>
+        <v>178</v>
       </c>
       <c r="J53">
-        <v>9997</v>
+        <v>7101</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B54">
         <v>3500</v>
@@ -2512,22 +2513,22 @@
         <v>7</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E54">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F54" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G54">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I54">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="J54">
-        <v>4506</v>
+        <v>8147</v>
       </c>
     </row>
     <row r="55" spans="1:10" x14ac:dyDescent="0.25">
@@ -2538,25 +2539,25 @@
         <v>3500</v>
       </c>
       <c r="C55" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E55">
         <v>0.7</v>
       </c>
       <c r="F55" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G55">
         <v>0.4</v>
       </c>
       <c r="I55">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="J55">
-        <v>7328</v>
+        <v>8192</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.25">
@@ -2570,80 +2571,80 @@
         <v>7</v>
       </c>
       <c r="D56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E56">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F56" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G56">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I56">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="J56">
-        <v>7805</v>
+        <v>8297</v>
       </c>
     </row>
     <row r="57" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B57">
         <v>3500</v>
       </c>
       <c r="C57" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E57">
         <v>0.8</v>
       </c>
       <c r="F57" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G57">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I57">
-        <v>202</v>
+        <v>190</v>
       </c>
       <c r="J57">
-        <v>4596</v>
+        <v>7984</v>
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B58">
         <v>3500</v>
       </c>
       <c r="C58" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E58">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F58" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G58">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I58">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="J58">
-        <v>8931</v>
+        <v>5468</v>
       </c>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -2654,30 +2655,30 @@
         <v>3500</v>
       </c>
       <c r="C59" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E59">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F59" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G59">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I59">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="J59">
-        <v>9519</v>
+        <v>6570</v>
       </c>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B60">
         <v>3500</v>
@@ -2692,21 +2693,21 @@
         <v>0.7</v>
       </c>
       <c r="F60" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G60">
         <v>0.2</v>
       </c>
       <c r="I60">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J60">
-        <v>4370</v>
+        <v>6716</v>
       </c>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B61">
         <v>3500</v>
@@ -2715,27 +2716,27 @@
         <v>7</v>
       </c>
       <c r="D61" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E61">
         <v>0.7</v>
       </c>
       <c r="F61" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G61">
         <v>0.2</v>
       </c>
       <c r="I61">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="J61">
-        <v>4177</v>
+        <v>7729</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B62">
         <v>3500</v>
@@ -2744,22 +2745,22 @@
         <v>7</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E62">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F62" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G62">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I62">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="J62">
-        <v>12568</v>
+        <v>5882</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
@@ -2770,30 +2771,30 @@
         <v>3500</v>
       </c>
       <c r="C63" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E63">
         <v>0.7</v>
       </c>
       <c r="F63" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G63">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I63">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="J63">
-        <v>8305</v>
+        <v>7744</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B64">
         <v>3500</v>
@@ -2805,10 +2806,10 @@
         <v>8</v>
       </c>
       <c r="E64">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F64" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G64">
         <v>0.2</v>
@@ -2817,7 +2818,7 @@
         <v>208</v>
       </c>
       <c r="J64">
-        <v>4448</v>
+        <v>7126</v>
       </c>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.25">
@@ -2831,13 +2832,13 @@
         <v>7</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E65">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F65" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G65">
         <v>0.2</v>
@@ -2846,12 +2847,12 @@
         <v>208</v>
       </c>
       <c r="J65">
-        <v>4578</v>
+        <v>5027</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B66">
         <v>3500</v>
@@ -2860,13 +2861,13 @@
         <v>7</v>
       </c>
       <c r="D66" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E66">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F66" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G66">
         <v>0.2</v>
@@ -2875,36 +2876,36 @@
         <v>208</v>
       </c>
       <c r="J66">
-        <v>7126</v>
+        <v>5671</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B67">
         <v>3500</v>
       </c>
       <c r="C67" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E67">
         <v>0.8</v>
       </c>
       <c r="F67" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G67">
         <v>0.4</v>
       </c>
       <c r="I67">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="J67">
-        <v>9993</v>
+        <v>5886</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
@@ -2915,65 +2916,65 @@
         <v>3500</v>
       </c>
       <c r="C68" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E68">
         <v>0.7</v>
       </c>
       <c r="F68" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G68">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I68">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="J68">
-        <v>10083</v>
+        <v>8178</v>
       </c>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B69">
         <v>3500</v>
       </c>
       <c r="C69" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D69" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E69">
         <v>0.7</v>
       </c>
       <c r="F69" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G69">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I69">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="J69">
-        <v>7251</v>
+        <v>4604</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B70">
         <v>3500</v>
       </c>
       <c r="C70" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D70" t="s">
         <v>8</v>
@@ -2982,103 +2983,103 @@
         <v>0.7</v>
       </c>
       <c r="F70" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G70">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I70">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J70">
-        <v>4390</v>
+        <v>6708</v>
       </c>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B71">
         <v>3500</v>
       </c>
       <c r="C71" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E71">
         <v>0.8</v>
       </c>
       <c r="F71" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G71">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I71">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="J71">
-        <v>4401</v>
+        <v>7051</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B72">
         <v>3500</v>
       </c>
       <c r="C72" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D72" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E72">
         <v>0.8</v>
       </c>
       <c r="F72" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G72">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I72">
-        <v>222</v>
+        <v>212</v>
       </c>
       <c r="J72">
-        <v>3990</v>
+        <v>8206</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B73">
         <v>3500</v>
       </c>
       <c r="C73" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D73" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E73">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F73" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G73">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I73">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J73">
-        <v>4249</v>
+        <v>7251</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.25">
@@ -3089,25 +3090,25 @@
         <v>3500</v>
       </c>
       <c r="C74" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D74" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E74">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F74" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G74">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I74">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="J74">
-        <v>10566</v>
+        <v>7891</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.25">
@@ -3118,7 +3119,7 @@
         <v>3500</v>
       </c>
       <c r="C75" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D75" t="s">
         <v>8</v>
@@ -3127,21 +3128,21 @@
         <v>0.8</v>
       </c>
       <c r="F75" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G75">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I75">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="J75">
-        <v>3997</v>
+        <v>4897</v>
       </c>
     </row>
     <row r="76" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B76">
         <v>3500</v>
@@ -3150,22 +3151,22 @@
         <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E76">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F76" t="s">
         <v>9</v>
       </c>
       <c r="G76">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I76">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="J76">
-        <v>8265</v>
+        <v>4390</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
@@ -3176,65 +3177,65 @@
         <v>3500</v>
       </c>
       <c r="C77" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D77" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E77">
         <v>0.7</v>
       </c>
       <c r="F77" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G77">
         <v>0.4</v>
       </c>
       <c r="I77">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="J77">
-        <v>4414</v>
+        <v>5839</v>
       </c>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B78">
         <v>3500</v>
       </c>
       <c r="C78" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D78" t="s">
         <v>8</v>
       </c>
       <c r="E78">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F78" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G78">
         <v>0.4</v>
       </c>
       <c r="I78">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="J78">
-        <v>6791</v>
+        <v>3502</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B79">
         <v>3500</v>
       </c>
       <c r="C79" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D79" t="s">
         <v>8</v>
@@ -3246,42 +3247,42 @@
         <v>9</v>
       </c>
       <c r="G79">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I79">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J79">
-        <v>8789</v>
+        <v>3990</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B80">
         <v>3500</v>
       </c>
       <c r="C80" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D80" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E80">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F80" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G80">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I80">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="J80">
-        <v>9635</v>
+        <v>4570</v>
       </c>
     </row>
     <row r="81" spans="1:10" x14ac:dyDescent="0.25">
@@ -3292,54 +3293,54 @@
         <v>3500</v>
       </c>
       <c r="C81" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D81" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E81">
         <v>0.7</v>
       </c>
       <c r="F81" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G81">
         <v>0.4</v>
       </c>
       <c r="I81">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="J81">
-        <v>3952</v>
+        <v>3084</v>
       </c>
     </row>
     <row r="82" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B82">
         <v>3500</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D82" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E82">
         <v>0.7</v>
       </c>
       <c r="F82" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G82">
         <v>0.4</v>
       </c>
       <c r="I82">
-        <v>236</v>
+        <v>222</v>
       </c>
       <c r="J82">
-        <v>5034</v>
+        <v>7038</v>
       </c>
     </row>
     <row r="83" spans="1:10" x14ac:dyDescent="0.25">
@@ -3350,36 +3351,36 @@
         <v>3500</v>
       </c>
       <c r="C83" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E83">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F83" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G83">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I83">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J83">
-        <v>4447</v>
+        <v>4136</v>
       </c>
     </row>
     <row r="84" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B84">
         <v>3500</v>
       </c>
       <c r="C84" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D84" t="s">
         <v>8</v>
@@ -3388,45 +3389,45 @@
         <v>0.8</v>
       </c>
       <c r="F84" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G84">
         <v>0.4</v>
       </c>
       <c r="I84">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="J84">
-        <v>3728</v>
+        <v>6974</v>
       </c>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B85">
         <v>3500</v>
       </c>
       <c r="C85" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D85" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E85">
         <v>0.8</v>
       </c>
       <c r="F85" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G85">
         <v>0.4</v>
       </c>
       <c r="I85">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J85">
-        <v>4368</v>
+        <v>8265</v>
       </c>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
@@ -3437,25 +3438,25 @@
         <v>3500</v>
       </c>
       <c r="C86" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E86">
         <v>0.7</v>
       </c>
       <c r="F86" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G86">
         <v>0.4</v>
       </c>
       <c r="I86">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="J86">
-        <v>3320</v>
+        <v>3997</v>
       </c>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
@@ -3466,25 +3467,25 @@
         <v>3500</v>
       </c>
       <c r="C87" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E87">
         <v>0.7</v>
       </c>
       <c r="F87" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G87">
         <v>0.4</v>
       </c>
       <c r="I87">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J87">
-        <v>8444</v>
+        <v>6703</v>
       </c>
     </row>
     <row r="88" spans="1:10" x14ac:dyDescent="0.25">
@@ -3495,59 +3496,59 @@
         <v>3500</v>
       </c>
       <c r="C88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D88" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E88">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F88" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G88">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I88">
-        <v>238</v>
+        <v>226</v>
       </c>
       <c r="J88">
-        <v>6593</v>
+        <v>8144</v>
       </c>
     </row>
     <row r="89" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B89">
         <v>3500</v>
       </c>
       <c r="C89" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D89" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E89">
         <v>0.8</v>
       </c>
       <c r="F89" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G89">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I89">
-        <v>240</v>
+        <v>226</v>
       </c>
       <c r="J89">
-        <v>4513</v>
+        <v>7727</v>
       </c>
     </row>
     <row r="90" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>3500</v>
@@ -3556,22 +3557,22 @@
         <v>7</v>
       </c>
       <c r="D90" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E90">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F90" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G90">
         <v>0.4</v>
       </c>
       <c r="I90">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="J90">
-        <v>8551</v>
+        <v>5517</v>
       </c>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
@@ -3582,10 +3583,10 @@
         <v>3500</v>
       </c>
       <c r="C91" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D91" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E91">
         <v>0.7</v>
@@ -3594,13 +3595,13 @@
         <v>9</v>
       </c>
       <c r="G91">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I91">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="J91">
-        <v>7987</v>
+        <v>6791</v>
       </c>
     </row>
     <row r="92" spans="1:10" x14ac:dyDescent="0.25">
@@ -3611,25 +3612,25 @@
         <v>3500</v>
       </c>
       <c r="C92" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D92" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E92">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F92" t="s">
         <v>9</v>
       </c>
       <c r="G92">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I92">
-        <v>242</v>
+        <v>230</v>
       </c>
       <c r="J92">
-        <v>6743</v>
+        <v>8789</v>
       </c>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
@@ -3643,51 +3644,51 @@
         <v>7</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E93">
         <v>0.8</v>
       </c>
       <c r="F93" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G93">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I93">
-        <v>244</v>
+        <v>230</v>
       </c>
       <c r="J93">
-        <v>4362</v>
+        <v>5623</v>
       </c>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B94">
         <v>3500</v>
       </c>
       <c r="C94" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E94">
         <v>0.8</v>
       </c>
       <c r="F94" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G94">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I94">
-        <v>246</v>
+        <v>230</v>
       </c>
       <c r="J94">
-        <v>8256</v>
+        <v>3531</v>
       </c>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
@@ -3698,7 +3699,7 @@
         <v>3500</v>
       </c>
       <c r="C95" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D95" t="s">
         <v>8</v>
@@ -3707,114 +3708,114 @@
         <v>0.7</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G95">
         <v>0.4</v>
       </c>
       <c r="I95">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="J95">
-        <v>3869</v>
+        <v>4046</v>
       </c>
     </row>
     <row r="96" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>3500</v>
       </c>
       <c r="C96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D96" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E96">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F96" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G96">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I96">
-        <v>248</v>
+        <v>232</v>
       </c>
       <c r="J96">
-        <v>9175</v>
+        <v>3243</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B97">
         <v>3500</v>
       </c>
       <c r="C97" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D97" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E97">
         <v>0.8</v>
       </c>
       <c r="F97" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G97">
         <v>0.2</v>
       </c>
       <c r="I97">
-        <v>250</v>
+        <v>232</v>
       </c>
       <c r="J97">
-        <v>3162</v>
+        <v>6632</v>
       </c>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B98">
         <v>3500</v>
       </c>
       <c r="C98" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E98">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F98" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G98">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I98">
-        <v>250</v>
+        <v>234</v>
       </c>
       <c r="J98">
-        <v>8045</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B99">
         <v>3500</v>
       </c>
       <c r="C99" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D99" t="s">
         <v>8</v>
@@ -3826,13 +3827,13 @@
         <v>9</v>
       </c>
       <c r="G99">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I99">
-        <v>256</v>
+        <v>236</v>
       </c>
       <c r="J99">
-        <v>7027</v>
+        <v>5034</v>
       </c>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
@@ -3843,54 +3844,54 @@
         <v>3500</v>
       </c>
       <c r="C100" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D100" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E100">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F100" t="s">
         <v>9</v>
       </c>
       <c r="G100">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I100">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="J100">
-        <v>3348</v>
+        <v>3728</v>
       </c>
     </row>
     <row r="101" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B101">
         <v>3500</v>
       </c>
       <c r="C101" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D101" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E101">
         <v>0.7</v>
       </c>
       <c r="F101" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G101">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I101">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="J101">
-        <v>6962</v>
+        <v>3320</v>
       </c>
     </row>
     <row r="102" spans="1:10" x14ac:dyDescent="0.25">
@@ -3901,7 +3902,7 @@
         <v>3500</v>
       </c>
       <c r="C102" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D102" t="s">
         <v>8</v>
@@ -3910,16 +3911,16 @@
         <v>0.7</v>
       </c>
       <c r="F102" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G102">
         <v>0.4</v>
       </c>
       <c r="I102">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="J102">
-        <v>3508</v>
+        <v>5460</v>
       </c>
     </row>
     <row r="103" spans="1:10" x14ac:dyDescent="0.25">
@@ -3930,25 +3931,25 @@
         <v>3500</v>
       </c>
       <c r="C103" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D103" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E103">
         <v>0.7</v>
       </c>
       <c r="F103" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G103">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I103">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="J103">
-        <v>8209</v>
+        <v>7694</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.25">
@@ -3959,100 +3960,100 @@
         <v>3500</v>
       </c>
       <c r="C104" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E104">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F104" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G104">
         <v>0.4</v>
       </c>
       <c r="I104">
-        <v>260</v>
+        <v>236</v>
       </c>
       <c r="J104">
-        <v>7710</v>
+        <v>8251</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B105">
         <v>3500</v>
       </c>
       <c r="C105" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E105">
         <v>0.7</v>
       </c>
       <c r="F105" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G105">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I105">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="J105">
-        <v>4522</v>
+        <v>7088</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B106">
         <v>3500</v>
       </c>
       <c r="C106" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D106" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E106">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F106" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G106">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I106">
-        <v>262</v>
+        <v>236</v>
       </c>
       <c r="J106">
-        <v>4524</v>
+        <v>7347</v>
       </c>
     </row>
     <row r="107" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B107">
         <v>3500</v>
       </c>
       <c r="C107" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D107" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E107">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F107" t="s">
         <v>9</v>
@@ -4061,10 +4062,10 @@
         <v>0.2</v>
       </c>
       <c r="I107">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="J107">
-        <v>4717</v>
+        <v>6593</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
@@ -4075,25 +4076,25 @@
         <v>3500</v>
       </c>
       <c r="C108" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D108" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E108">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F108" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G108">
         <v>0.2</v>
       </c>
       <c r="I108">
-        <v>264</v>
+        <v>238</v>
       </c>
       <c r="J108">
-        <v>7212</v>
+        <v>6679</v>
       </c>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
@@ -4104,13 +4105,13 @@
         <v>3500</v>
       </c>
       <c r="C109" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D109" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E109">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F109" t="s">
         <v>9</v>
@@ -4119,10 +4120,10 @@
         <v>0.4</v>
       </c>
       <c r="I109">
-        <v>264</v>
+        <v>240</v>
       </c>
       <c r="J109">
-        <v>8090</v>
+        <v>8551</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
@@ -4133,25 +4134,25 @@
         <v>3500</v>
       </c>
       <c r="C110" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D110" t="s">
         <v>8</v>
       </c>
       <c r="E110">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F110" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G110">
         <v>0.2</v>
       </c>
       <c r="I110">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="J110">
-        <v>7960</v>
+        <v>6599</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
@@ -4162,42 +4163,42 @@
         <v>3500</v>
       </c>
       <c r="C111" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D111" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E111">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F111" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G111">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I111">
-        <v>266</v>
+        <v>240</v>
       </c>
       <c r="J111">
-        <v>7586</v>
+        <v>7868</v>
       </c>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B112">
         <v>3500</v>
       </c>
       <c r="C112" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D112" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E112">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F112" t="s">
         <v>9</v>
@@ -4206,27 +4207,27 @@
         <v>0.2</v>
       </c>
       <c r="I112">
-        <v>268</v>
+        <v>242</v>
       </c>
       <c r="J112">
-        <v>4057</v>
+        <v>7987</v>
       </c>
     </row>
     <row r="113" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B113">
         <v>3500</v>
       </c>
       <c r="C113" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D113" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E113">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F113" t="s">
         <v>9</v>
@@ -4235,10 +4236,10 @@
         <v>0.2</v>
       </c>
       <c r="I113">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="J113">
-        <v>4301</v>
+        <v>6743</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.25">
@@ -4249,25 +4250,25 @@
         <v>3500</v>
       </c>
       <c r="C114" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D114" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E114">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F114" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G114">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I114">
-        <v>270</v>
+        <v>242</v>
       </c>
       <c r="J114">
-        <v>8903</v>
+        <v>7906</v>
       </c>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
@@ -4278,25 +4279,25 @@
         <v>3500</v>
       </c>
       <c r="C115" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E115">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F115" t="s">
         <v>9</v>
       </c>
       <c r="G115">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I115">
-        <v>272</v>
+        <v>244</v>
       </c>
       <c r="J115">
-        <v>4217</v>
+        <v>4362</v>
       </c>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
@@ -4307,25 +4308,25 @@
         <v>3500</v>
       </c>
       <c r="C116" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D116" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E116">
         <v>0.7</v>
       </c>
       <c r="F116" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G116">
         <v>0.2</v>
       </c>
       <c r="I116">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="J116">
-        <v>3548</v>
+        <v>5407</v>
       </c>
     </row>
     <row r="117" spans="1:10" x14ac:dyDescent="0.25">
@@ -4336,68 +4337,68 @@
         <v>3500</v>
       </c>
       <c r="C117" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D117" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E117">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F117" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G117">
         <v>0.4</v>
       </c>
       <c r="I117">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="J117">
-        <v>4189</v>
+        <v>4032</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B118">
         <v>3500</v>
       </c>
       <c r="C118" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D118" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E118">
         <v>0.8</v>
       </c>
       <c r="F118" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G118">
         <v>0.2</v>
       </c>
       <c r="I118">
-        <v>274</v>
+        <v>244</v>
       </c>
       <c r="J118">
-        <v>10021</v>
+        <v>3001</v>
       </c>
     </row>
     <row r="119" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B119">
         <v>3500</v>
       </c>
       <c r="C119" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D119" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E119">
         <v>0.8</v>
@@ -4409,10 +4410,10 @@
         <v>0.2</v>
       </c>
       <c r="I119">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="J119">
-        <v>3698</v>
+        <v>8256</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
@@ -4423,54 +4424,54 @@
         <v>3500</v>
       </c>
       <c r="C120" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D120" t="s">
         <v>13</v>
       </c>
       <c r="E120">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F120" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G120">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I120">
-        <v>276</v>
+        <v>246</v>
       </c>
       <c r="J120">
-        <v>3660</v>
+        <v>3061</v>
       </c>
     </row>
     <row r="121" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B121">
         <v>3500</v>
       </c>
       <c r="C121" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D121" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E121">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F121" t="s">
         <v>9</v>
       </c>
       <c r="G121">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I121">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="J121">
-        <v>3718</v>
+        <v>9175</v>
       </c>
     </row>
     <row r="122" spans="1:10" x14ac:dyDescent="0.25">
@@ -4481,25 +4482,25 @@
         <v>3500</v>
       </c>
       <c r="C122" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D122" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E122">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F122" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G122">
         <v>0.4</v>
       </c>
       <c r="I122">
-        <v>278</v>
+        <v>248</v>
       </c>
       <c r="J122">
-        <v>4208</v>
+        <v>3963</v>
       </c>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
@@ -4510,71 +4511,71 @@
         <v>3500</v>
       </c>
       <c r="C123" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E123">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F123" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G123">
         <v>0.2</v>
       </c>
       <c r="I123">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="J123">
-        <v>7549</v>
+        <v>6551</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B124">
         <v>3500</v>
       </c>
       <c r="C124" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E124">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F124" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G124">
         <v>0.2</v>
       </c>
       <c r="I124">
-        <v>282</v>
+        <v>250</v>
       </c>
       <c r="J124">
-        <v>7841</v>
+        <v>3162</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B125">
         <v>3500</v>
       </c>
       <c r="C125" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D125" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E125">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F125" t="s">
         <v>9</v>
@@ -4583,10 +4584,10 @@
         <v>0.2</v>
       </c>
       <c r="I125">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="J125">
-        <v>3527</v>
+        <v>8045</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.25">
@@ -4597,83 +4598,83 @@
         <v>3500</v>
       </c>
       <c r="C126" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D126" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E126">
         <v>0.7</v>
       </c>
       <c r="F126" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G126">
         <v>0.2</v>
       </c>
       <c r="I126">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="J126">
-        <v>3608</v>
+        <v>3042</v>
       </c>
     </row>
     <row r="127" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B127">
         <v>3500</v>
       </c>
       <c r="C127" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D127" t="s">
         <v>13</v>
       </c>
       <c r="E127">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F127" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G127">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I127">
-        <v>290</v>
+        <v>252</v>
       </c>
       <c r="J127">
-        <v>3874</v>
+        <v>7940</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B128">
         <v>3500</v>
       </c>
       <c r="C128" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D128" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E128">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F128" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G128">
         <v>0.2</v>
       </c>
       <c r="I128">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="J128">
-        <v>7713</v>
+        <v>3588</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.25">
@@ -4684,25 +4685,25 @@
         <v>3500</v>
       </c>
       <c r="C129" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D129" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E129">
         <v>0.8</v>
       </c>
       <c r="F129" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G129">
         <v>0.2</v>
       </c>
       <c r="I129">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="J129">
-        <v>3771</v>
+        <v>4043</v>
       </c>
     </row>
     <row r="130" spans="1:10" x14ac:dyDescent="0.25">
@@ -4713,7 +4714,7 @@
         <v>3500</v>
       </c>
       <c r="C130" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D130" t="s">
         <v>13</v>
@@ -4722,85 +4723,85 @@
         <v>0.8</v>
       </c>
       <c r="F130" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G130">
         <v>0.2</v>
       </c>
       <c r="I130">
-        <v>296</v>
+        <v>254</v>
       </c>
       <c r="J130">
-        <v>3683</v>
+        <v>3004</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B131">
         <v>3500</v>
       </c>
       <c r="C131" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D131" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E131">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F131" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G131">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I131">
-        <v>298</v>
+        <v>254</v>
       </c>
       <c r="J131">
-        <v>4182</v>
+        <v>8148</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B132">
         <v>3500</v>
       </c>
       <c r="C132" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D132" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E132">
         <v>0.7</v>
       </c>
       <c r="F132" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G132">
         <v>0.2</v>
       </c>
       <c r="I132">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="J132">
-        <v>3337</v>
+        <v>7027</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B133">
         <v>3500</v>
       </c>
       <c r="C133" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D133" t="s">
         <v>8</v>
@@ -4809,56 +4810,56 @@
         <v>0.7</v>
       </c>
       <c r="F133" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G133">
         <v>0.2</v>
       </c>
       <c r="I133">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="J133">
-        <v>8147</v>
+        <v>3525</v>
       </c>
     </row>
     <row r="134" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B134">
         <v>3500</v>
       </c>
       <c r="C134" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D134" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E134">
         <v>0.7</v>
       </c>
       <c r="F134" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G134">
         <v>0.4</v>
       </c>
       <c r="I134">
-        <v>300</v>
+        <v>256</v>
       </c>
       <c r="J134">
-        <v>3933</v>
+        <v>7018</v>
       </c>
     </row>
     <row r="135" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B135">
         <v>3500</v>
       </c>
       <c r="C135" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D135" t="s">
         <v>13</v>
@@ -4867,74 +4868,74 @@
         <v>0.7</v>
       </c>
       <c r="F135" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G135">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I135">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="J135">
-        <v>10380</v>
+        <v>3348</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B136">
         <v>3500</v>
       </c>
       <c r="C136" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D136" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E136">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F136" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G136">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I136">
-        <v>300</v>
+        <v>258</v>
       </c>
       <c r="J136">
-        <v>8070</v>
+        <v>3229</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B137">
         <v>3500</v>
       </c>
       <c r="C137" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D137" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E137">
         <v>0.8</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G137">
         <v>0.2</v>
       </c>
       <c r="I137">
-        <v>302</v>
+        <v>258</v>
       </c>
       <c r="J137">
-        <v>4331</v>
+        <v>9480</v>
       </c>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
@@ -4945,25 +4946,25 @@
         <v>3500</v>
       </c>
       <c r="C138" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D138" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E138">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F138" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G138">
         <v>0.4</v>
       </c>
       <c r="I138">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="J138">
-        <v>3834</v>
+        <v>3508</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.25">
@@ -4974,25 +4975,25 @@
         <v>3500</v>
       </c>
       <c r="C139" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D139" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E139">
         <v>0.7</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G139">
         <v>0.4</v>
       </c>
       <c r="I139">
-        <v>302</v>
+        <v>260</v>
       </c>
       <c r="J139">
-        <v>7095</v>
+        <v>8209</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.25">
@@ -5003,25 +5004,25 @@
         <v>3500</v>
       </c>
       <c r="C140" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D140" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E140">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F140" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G140">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I140">
-        <v>304</v>
+        <v>260</v>
       </c>
       <c r="J140">
-        <v>7387</v>
+        <v>7710</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.25">
@@ -5032,7 +5033,7 @@
         <v>3500</v>
       </c>
       <c r="C141" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D141" t="s">
         <v>8</v>
@@ -5041,45 +5042,45 @@
         <v>0.7</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G141">
         <v>0.2</v>
       </c>
       <c r="I141">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="J141">
-        <v>3709</v>
+        <v>3770</v>
       </c>
     </row>
     <row r="142" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B142">
         <v>3500</v>
       </c>
       <c r="C142" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E142">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F142" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G142">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I142">
-        <v>308</v>
+        <v>260</v>
       </c>
       <c r="J142">
-        <v>4152</v>
+        <v>6718</v>
       </c>
     </row>
     <row r="143" spans="1:10" x14ac:dyDescent="0.25">
@@ -5090,30 +5091,30 @@
         <v>3500</v>
       </c>
       <c r="C143" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E143">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G143">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I143">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="J143">
-        <v>4494</v>
+        <v>4522</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B144">
         <v>3500</v>
@@ -5122,22 +5123,22 @@
         <v>7</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E144">
         <v>0.7</v>
       </c>
       <c r="F144" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G144">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I144">
-        <v>312</v>
+        <v>264</v>
       </c>
       <c r="J144">
-        <v>10356</v>
+        <v>4717</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.25">
@@ -5148,25 +5149,25 @@
         <v>3500</v>
       </c>
       <c r="C145" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D145" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E145">
         <v>0.8</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G145">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I145">
-        <v>314</v>
+        <v>264</v>
       </c>
       <c r="J145">
-        <v>8193</v>
+        <v>7212</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.25">
@@ -5177,25 +5178,25 @@
         <v>3500</v>
       </c>
       <c r="C146" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E146">
         <v>0.8</v>
       </c>
       <c r="F146" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G146">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I146">
-        <v>316</v>
+        <v>264</v>
       </c>
       <c r="J146">
-        <v>9017</v>
+        <v>8090</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.25">
@@ -5206,112 +5207,112 @@
         <v>3500</v>
       </c>
       <c r="C147" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D147" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E147">
         <v>0.7</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G147">
         <v>0.4</v>
       </c>
       <c r="I147">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="J147">
-        <v>3647</v>
+        <v>3401</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B148">
         <v>3500</v>
       </c>
       <c r="C148" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D148" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E148">
         <v>0.8</v>
       </c>
       <c r="F148" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G148">
         <v>0.2</v>
       </c>
       <c r="I148">
-        <v>318</v>
+        <v>264</v>
       </c>
       <c r="J148">
-        <v>7735</v>
+        <v>3265</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B149">
         <v>3500</v>
       </c>
       <c r="C149" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E149">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F149" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G149">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I149">
-        <v>320</v>
+        <v>264</v>
       </c>
       <c r="J149">
-        <v>7978</v>
+        <v>3811</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B150">
         <v>3500</v>
       </c>
       <c r="C150" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D150" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E150">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F150" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G150">
         <v>0.2</v>
       </c>
       <c r="I150">
-        <v>322</v>
+        <v>264</v>
       </c>
       <c r="J150">
-        <v>9158</v>
+        <v>4035</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
@@ -5322,25 +5323,25 @@
         <v>3500</v>
       </c>
       <c r="C151" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E151">
         <v>0.7</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G151">
         <v>0.2</v>
       </c>
       <c r="I151">
-        <v>324</v>
+        <v>264</v>
       </c>
       <c r="J151">
-        <v>8064</v>
+        <v>6314</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.25">
@@ -5351,25 +5352,25 @@
         <v>3500</v>
       </c>
       <c r="C152" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D152" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E152">
         <v>0.7</v>
       </c>
       <c r="F152" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G152">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I152">
-        <v>326</v>
+        <v>264</v>
       </c>
       <c r="J152">
-        <v>8317</v>
+        <v>6604</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.25">
@@ -5380,54 +5381,54 @@
         <v>3500</v>
       </c>
       <c r="C153" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D153" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E153">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G153">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I153">
-        <v>328</v>
+        <v>266</v>
       </c>
       <c r="J153">
-        <v>7071</v>
+        <v>7586</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B154">
         <v>3500</v>
       </c>
       <c r="C154" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D154" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E154">
         <v>0.8</v>
       </c>
       <c r="F154" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G154">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I154">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="J154">
-        <v>3472</v>
+        <v>6790</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.25">
@@ -5438,25 +5439,25 @@
         <v>3500</v>
       </c>
       <c r="C155" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D155" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E155">
         <v>0.8</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G155">
         <v>0.2</v>
       </c>
       <c r="I155">
-        <v>330</v>
+        <v>268</v>
       </c>
       <c r="J155">
-        <v>3511</v>
+        <v>4057</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
@@ -5467,83 +5468,83 @@
         <v>3500</v>
       </c>
       <c r="C156" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D156" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E156">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F156" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G156">
         <v>0.2</v>
       </c>
       <c r="I156">
-        <v>332</v>
+        <v>268</v>
       </c>
       <c r="J156">
-        <v>3319</v>
+        <v>3462</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B157">
         <v>3500</v>
       </c>
       <c r="C157" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D157" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E157">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F157" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G157">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I157">
-        <v>332</v>
+        <v>270</v>
       </c>
       <c r="J157">
-        <v>7895</v>
+        <v>4301</v>
       </c>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B158">
         <v>3500</v>
       </c>
       <c r="C158" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D158" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E158">
         <v>0.8</v>
       </c>
       <c r="F158" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G158">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I158">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="J158">
-        <v>7710</v>
+        <v>3342</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
@@ -5554,25 +5555,25 @@
         <v>3500</v>
       </c>
       <c r="C159" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D159" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E159">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F159" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G159">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I159">
-        <v>334</v>
+        <v>270</v>
       </c>
       <c r="J159">
-        <v>7322</v>
+        <v>6545</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.25">
@@ -5583,25 +5584,25 @@
         <v>3500</v>
       </c>
       <c r="C160" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D160" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E160">
         <v>0.7</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G160">
         <v>0.2</v>
       </c>
       <c r="I160">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="J160">
-        <v>3883</v>
+        <v>4217</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.25">
@@ -5612,25 +5613,25 @@
         <v>3500</v>
       </c>
       <c r="C161" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D161" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E161">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F161" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G161">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I161">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="J161">
-        <v>3505</v>
+        <v>3412</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
@@ -5641,54 +5642,54 @@
         <v>3500</v>
       </c>
       <c r="C162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D162" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E162">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F162" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G162">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I162">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="J162">
-        <v>3656</v>
+        <v>3257</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B163">
         <v>3500</v>
       </c>
       <c r="C163" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D163" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E163">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F163" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G163">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I163">
-        <v>336</v>
+        <v>272</v>
       </c>
       <c r="J163">
-        <v>7154</v>
+        <v>3448</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
@@ -5699,83 +5700,83 @@
         <v>3500</v>
       </c>
       <c r="C164" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D164" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E164">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F164" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G164">
         <v>0.2</v>
       </c>
       <c r="I164">
-        <v>338</v>
+        <v>274</v>
       </c>
       <c r="J164">
-        <v>4291</v>
+        <v>3548</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B165">
         <v>3500</v>
       </c>
       <c r="C165" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="E165">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F165" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G165">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I165">
-        <v>340</v>
+        <v>274</v>
       </c>
       <c r="J165">
-        <v>7108</v>
+        <v>4189</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B166">
         <v>3500</v>
       </c>
       <c r="C166" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D166" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="E166">
         <v>0.7</v>
       </c>
       <c r="F166" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G166">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I166">
-        <v>344</v>
+        <v>274</v>
       </c>
       <c r="J166">
-        <v>4581</v>
+        <v>6381</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.25">
@@ -5786,25 +5787,25 @@
         <v>3500</v>
       </c>
       <c r="C167" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D167" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E167">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F167" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G167">
         <v>0.2</v>
       </c>
       <c r="I167">
-        <v>344</v>
+        <v>276</v>
       </c>
       <c r="J167">
-        <v>4259</v>
+        <v>3698</v>
       </c>
     </row>
     <row r="168" spans="1:10" x14ac:dyDescent="0.25">
@@ -5815,25 +5816,25 @@
         <v>3500</v>
       </c>
       <c r="C168" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D168" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E168">
         <v>0.8</v>
       </c>
       <c r="F168" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G168">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I168">
-        <v>346</v>
+        <v>276</v>
       </c>
       <c r="J168">
-        <v>3530</v>
+        <v>3660</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
@@ -5844,25 +5845,25 @@
         <v>3500</v>
       </c>
       <c r="C169" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D169" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E169">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F169" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G169">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I169">
-        <v>348</v>
+        <v>276</v>
       </c>
       <c r="J169">
-        <v>4707</v>
+        <v>3896</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
@@ -5873,13 +5874,13 @@
         <v>3500</v>
       </c>
       <c r="C170" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D170" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E170">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F170" t="s">
         <v>9</v>
@@ -5888,10 +5889,10 @@
         <v>0.4</v>
       </c>
       <c r="I170">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="J170">
-        <v>5033</v>
+        <v>3718</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
@@ -5902,25 +5903,25 @@
         <v>3500</v>
       </c>
       <c r="C171" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D171" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E171">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F171" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G171">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I171">
-        <v>352</v>
+        <v>278</v>
       </c>
       <c r="J171">
-        <v>3841</v>
+        <v>4208</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.25">
@@ -5931,25 +5932,25 @@
         <v>3500</v>
       </c>
       <c r="C172" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D172" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E172">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F172" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G172">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I172">
-        <v>354</v>
+        <v>280</v>
       </c>
       <c r="J172">
-        <v>12416</v>
+        <v>7549</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.25">
@@ -5960,25 +5961,25 @@
         <v>3500</v>
       </c>
       <c r="C173" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D173" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E173">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F173" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G173">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I173">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="J173">
-        <v>3725</v>
+        <v>3222</v>
       </c>
     </row>
     <row r="174" spans="1:10" x14ac:dyDescent="0.25">
@@ -5989,25 +5990,25 @@
         <v>3500</v>
       </c>
       <c r="C174" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D174" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E174">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F174" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G174">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I174">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="J174">
-        <v>8750</v>
+        <v>6504</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.25">
@@ -6018,141 +6019,141 @@
         <v>3500</v>
       </c>
       <c r="C175" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D175" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E175">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F175" t="s">
         <v>9</v>
       </c>
       <c r="G175">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I175">
-        <v>364</v>
+        <v>286</v>
       </c>
       <c r="J175">
-        <v>4022</v>
+        <v>3527</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B176">
         <v>3500</v>
       </c>
       <c r="C176" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D176" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E176">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F176" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G176">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I176">
-        <v>366</v>
+        <v>290</v>
       </c>
       <c r="J176">
-        <v>3738</v>
+        <v>7713</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B177">
         <v>3500</v>
       </c>
       <c r="C177" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E177">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F177" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G177">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I177">
-        <v>374</v>
+        <v>296</v>
       </c>
       <c r="J177">
-        <v>10425</v>
+        <v>3683</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B178">
         <v>3500</v>
       </c>
       <c r="C178" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D178" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E178">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F178" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G178">
         <v>0.4</v>
       </c>
       <c r="I178">
-        <v>376</v>
+        <v>320</v>
       </c>
       <c r="J178">
-        <v>4423</v>
+        <v>7978</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B179">
         <v>3500</v>
       </c>
       <c r="C179" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D179" t="s">
         <v>13</v>
       </c>
       <c r="E179">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F179" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G179">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I179">
-        <v>378</v>
+        <v>338</v>
       </c>
       <c r="J179">
-        <v>8385</v>
+        <v>3652</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.25">
@@ -6166,22 +6167,22 @@
         <v>7</v>
       </c>
       <c r="D180" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E180">
         <v>0.8</v>
       </c>
       <c r="F180" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G180">
         <v>0.4</v>
       </c>
       <c r="I180">
-        <v>384</v>
+        <v>352</v>
       </c>
       <c r="J180">
-        <v>4502</v>
+        <v>5033</v>
       </c>
     </row>
     <row r="181" spans="1:10" x14ac:dyDescent="0.25">
@@ -6195,22 +6196,22 @@
         <v>7</v>
       </c>
       <c r="D181" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E181">
         <v>0.7</v>
       </c>
       <c r="F181" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G181">
         <v>0.4</v>
       </c>
       <c r="I181">
-        <v>386</v>
+        <v>352</v>
       </c>
       <c r="J181">
-        <v>4473</v>
+        <v>5633</v>
       </c>
     </row>
     <row r="182" spans="1:10" x14ac:dyDescent="0.25">
@@ -6227,7 +6228,7 @@
         <v>8</v>
       </c>
       <c r="E182">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F182" t="s">
         <v>9</v>
@@ -6236,21 +6237,21 @@
         <v>0.4</v>
       </c>
       <c r="I182">
-        <v>386</v>
+        <v>360</v>
       </c>
       <c r="J182">
-        <v>8841</v>
+        <v>8750</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B183">
         <v>3500</v>
       </c>
       <c r="C183" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D183" t="s">
         <v>13</v>
@@ -6259,16 +6260,16 @@
         <v>0.8</v>
       </c>
       <c r="F183" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G183">
         <v>0.4</v>
       </c>
       <c r="I183">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="J183">
-        <v>10461</v>
+        <v>3636</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.25">
@@ -6279,7 +6280,7 @@
         <v>3500</v>
       </c>
       <c r="C184" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D184" t="s">
         <v>13</v>
@@ -6288,16 +6289,16 @@
         <v>0.8</v>
       </c>
       <c r="F184" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G184">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I184">
-        <v>388</v>
+        <v>364</v>
       </c>
       <c r="J184">
-        <v>4703</v>
+        <v>4022</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.25">
@@ -6311,27 +6312,27 @@
         <v>7</v>
       </c>
       <c r="D185" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E185">
         <v>0.7</v>
       </c>
       <c r="F185" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G185">
         <v>0.4</v>
       </c>
       <c r="I185">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="J185">
-        <v>9609</v>
+        <v>10425</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B186">
         <v>3500</v>
@@ -6340,27 +6341,27 @@
         <v>7</v>
       </c>
       <c r="D186" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E186">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F186" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G186">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I186">
-        <v>390</v>
+        <v>378</v>
       </c>
       <c r="J186">
-        <v>4572</v>
+        <v>8385</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B187">
         <v>3500</v>
@@ -6369,22 +6370,22 @@
         <v>7</v>
       </c>
       <c r="D187" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E187">
         <v>0.7</v>
       </c>
       <c r="F187" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G187">
         <v>0.4</v>
       </c>
       <c r="I187">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J187">
-        <v>9100</v>
+        <v>4473</v>
       </c>
     </row>
     <row r="188" spans="1:10" x14ac:dyDescent="0.25">
@@ -6401,19 +6402,19 @@
         <v>8</v>
       </c>
       <c r="E188">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F188" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G188">
         <v>0.4</v>
       </c>
       <c r="I188">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J188">
-        <v>9102</v>
+        <v>8841</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.25">
@@ -6427,27 +6428,27 @@
         <v>7</v>
       </c>
       <c r="D189" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E189">
         <v>0.8</v>
       </c>
       <c r="F189" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G189">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I189">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="J189">
-        <v>8347</v>
+        <v>10461</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B190">
         <v>3500</v>
@@ -6456,27 +6457,27 @@
         <v>7</v>
       </c>
       <c r="D190" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E190">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F190" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G190">
         <v>0.4</v>
       </c>
       <c r="I190">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="J190">
-        <v>3915</v>
+        <v>7588</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B191">
         <v>3500</v>
@@ -6485,27 +6486,27 @@
         <v>7</v>
       </c>
       <c r="D191" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E191">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F191" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G191">
         <v>0.2</v>
       </c>
       <c r="I191">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J191">
-        <v>9971</v>
+        <v>4703</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B192">
         <v>3500</v>
@@ -6514,22 +6515,22 @@
         <v>7</v>
       </c>
       <c r="D192" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E192">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F192" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G192">
         <v>0.4</v>
       </c>
       <c r="I192">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J192">
-        <v>10764</v>
+        <v>6079</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.25">
@@ -6543,27 +6544,27 @@
         <v>7</v>
       </c>
       <c r="D193" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E193">
         <v>0.7</v>
       </c>
       <c r="F193" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G193">
         <v>0.4</v>
       </c>
       <c r="I193">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="J193">
-        <v>9396</v>
+        <v>8264</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B194">
         <v>3500</v>
@@ -6572,27 +6573,27 @@
         <v>7</v>
       </c>
       <c r="D194" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E194">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F194" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G194">
         <v>0.4</v>
       </c>
       <c r="I194">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="J194">
-        <v>12176</v>
+        <v>4454</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B195">
         <v>3500</v>
@@ -6601,27 +6602,27 @@
         <v>7</v>
       </c>
       <c r="D195" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="E195">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F195" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G195">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I195">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="J195">
-        <v>3969</v>
+        <v>8195</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B196">
         <v>3500</v>
@@ -6630,22 +6631,22 @@
         <v>7</v>
       </c>
       <c r="D196" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E196">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F196" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G196">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I196">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J196">
-        <v>8701</v>
+        <v>3915</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
@@ -6659,27 +6660,27 @@
         <v>7</v>
       </c>
       <c r="D197" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E197">
         <v>0.8</v>
       </c>
       <c r="F197" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G197">
         <v>0.4</v>
       </c>
       <c r="I197">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J197">
-        <v>9508</v>
+        <v>8315</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B198">
         <v>3500</v>
@@ -6688,56 +6689,56 @@
         <v>7</v>
       </c>
       <c r="D198" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E198">
         <v>0.7</v>
       </c>
       <c r="F198" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G198">
         <v>0.2</v>
       </c>
       <c r="I198">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J198">
-        <v>4540</v>
+        <v>7534</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B199">
         <v>3500</v>
       </c>
       <c r="C199" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D199" t="s">
         <v>13</v>
       </c>
       <c r="E199">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F199" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G199">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I199">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="J199">
-        <v>4513</v>
+        <v>8649</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B200">
         <v>3500</v>
@@ -6746,7 +6747,7 @@
         <v>7</v>
       </c>
       <c r="D200" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E200">
         <v>0.8</v>
@@ -6755,18 +6756,18 @@
         <v>9</v>
       </c>
       <c r="G200">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I200">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J200">
-        <v>4618</v>
+        <v>9508</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B201">
         <v>3500</v>
@@ -6775,22 +6776,22 @@
         <v>7</v>
       </c>
       <c r="D201" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E201">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F201" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G201">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I201">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J201">
-        <v>8761</v>
+        <v>5226</v>
       </c>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
@@ -6804,22 +6805,22 @@
         <v>7</v>
       </c>
       <c r="D202" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E202">
         <v>0.8</v>
       </c>
       <c r="F202" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G202">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I202">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="J202">
-        <v>9878</v>
+        <v>8420</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.25">
@@ -6833,22 +6834,22 @@
         <v>7</v>
       </c>
       <c r="D203" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E203">
         <v>0.7</v>
       </c>
       <c r="F203" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G203">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I203">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J203">
-        <v>4636</v>
+        <v>4540</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
@@ -6862,22 +6863,22 @@
         <v>7</v>
       </c>
       <c r="D204" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E204">
         <v>0.8</v>
       </c>
       <c r="F204" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G204">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I204">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J204">
-        <v>4728</v>
+        <v>4618</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.25">
@@ -6891,27 +6892,27 @@
         <v>7</v>
       </c>
       <c r="D205" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E205">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F205" t="s">
         <v>9</v>
       </c>
       <c r="G205">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I205">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J205">
-        <v>8848</v>
+        <v>9878</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B206">
         <v>3500</v>
@@ -6920,7 +6921,7 @@
         <v>7</v>
       </c>
       <c r="D206" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E206">
         <v>0.7</v>
@@ -6932,15 +6933,15 @@
         <v>0.2</v>
       </c>
       <c r="I206">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J206">
-        <v>9295</v>
+        <v>4513</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B207">
         <v>3500</v>
@@ -6949,22 +6950,22 @@
         <v>7</v>
       </c>
       <c r="D207" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E207">
         <v>0.8</v>
       </c>
       <c r="F207" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G207">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I207">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J207">
-        <v>9672</v>
+        <v>5870</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
@@ -6981,24 +6982,24 @@
         <v>13</v>
       </c>
       <c r="E208">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F208" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G208">
         <v>0.4</v>
       </c>
       <c r="I208">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="J208">
-        <v>10599</v>
+        <v>7219</v>
       </c>
     </row>
     <row r="209" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B209">
         <v>3500</v>
@@ -7007,27 +7008,27 @@
         <v>7</v>
       </c>
       <c r="D209" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E209">
         <v>0.7</v>
       </c>
       <c r="F209" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G209">
         <v>0.4</v>
       </c>
       <c r="I209">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J209">
-        <v>5067</v>
+        <v>8848</v>
       </c>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B210">
         <v>3500</v>
@@ -7036,22 +7037,22 @@
         <v>7</v>
       </c>
       <c r="D210" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E210">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F210" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G210">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I210">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J210">
-        <v>5008</v>
+        <v>9295</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.25">
@@ -7065,22 +7066,22 @@
         <v>7</v>
       </c>
       <c r="D211" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E211">
         <v>0.7</v>
       </c>
       <c r="F211" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G211">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I211">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J211">
-        <v>4583</v>
+        <v>5256</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.25">
@@ -7094,22 +7095,22 @@
         <v>7</v>
       </c>
       <c r="D212" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E212">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F212" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G212">
         <v>0.2</v>
       </c>
       <c r="I212">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J212">
-        <v>4462</v>
+        <v>5399</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.25">
@@ -7126,24 +7127,24 @@
         <v>13</v>
       </c>
       <c r="E213">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F213" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G213">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I213">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="J213">
-        <v>4643</v>
+        <v>4837</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B214">
         <v>3500</v>
@@ -7152,27 +7153,27 @@
         <v>7</v>
       </c>
       <c r="D214" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E214">
         <v>0.7</v>
       </c>
       <c r="F214" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G214">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I214">
         <v>400</v>
       </c>
       <c r="J214">
-        <v>9676</v>
+        <v>4583</v>
       </c>
     </row>
     <row r="215" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B215">
         <v>3500</v>
@@ -7181,7 +7182,7 @@
         <v>7</v>
       </c>
       <c r="D215" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E215">
         <v>0.8</v>
@@ -7190,18 +7191,18 @@
         <v>10</v>
       </c>
       <c r="G215">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I215">
         <v>400</v>
       </c>
       <c r="J215">
-        <v>9957</v>
+        <v>4643</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B216">
         <v>3500</v>
@@ -7210,22 +7211,22 @@
         <v>7</v>
       </c>
       <c r="D216" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E216">
         <v>0.8</v>
       </c>
       <c r="F216" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G216">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I216">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J216">
-        <v>5139</v>
+        <v>9957</v>
       </c>
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.25">
@@ -7239,22 +7240,22 @@
         <v>7</v>
       </c>
       <c r="D217" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F217" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G217">
         <v>0.4</v>
       </c>
       <c r="I217">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J217">
-        <v>8453</v>
+        <v>7511</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.25">
@@ -7268,22 +7269,22 @@
         <v>7</v>
       </c>
       <c r="D218" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E218">
         <v>0.8</v>
       </c>
       <c r="F218" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G218">
         <v>0.4</v>
       </c>
       <c r="I218">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J218">
-        <v>10342</v>
+        <v>7745</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.25">
@@ -7297,27 +7298,27 @@
         <v>7</v>
       </c>
       <c r="D219" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E219">
         <v>0.8</v>
       </c>
       <c r="F219" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G219">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I219">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="J219">
-        <v>10356</v>
+        <v>7792</v>
       </c>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B220">
         <v>3500</v>
@@ -7326,22 +7327,22 @@
         <v>7</v>
       </c>
       <c r="D220" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E220">
         <v>0.7</v>
       </c>
       <c r="F220" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G220">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I220">
         <v>402</v>
       </c>
       <c r="J220">
-        <v>8476</v>
+        <v>5259</v>
       </c>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.25">
@@ -7355,27 +7356,27 @@
         <v>7</v>
       </c>
       <c r="D221" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E221">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F221" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G221">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I221">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J221">
-        <v>4956</v>
+        <v>5317</v>
       </c>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B222">
         <v>3500</v>
@@ -7384,22 +7385,22 @@
         <v>7</v>
       </c>
       <c r="D222" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E222">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F222" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G222">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I222">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J222">
-        <v>4569</v>
+        <v>7499</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -7413,22 +7414,22 @@
         <v>7</v>
       </c>
       <c r="D223" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E223">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F223" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G223">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I223">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J223">
-        <v>10789</v>
+        <v>7794</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.25">
@@ -7442,22 +7443,22 @@
         <v>7</v>
       </c>
       <c r="D224" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E224">
         <v>0.8</v>
       </c>
       <c r="F224" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G224">
         <v>0.2</v>
       </c>
       <c r="I224">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J224">
-        <v>7907</v>
+        <v>7651</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.25">
@@ -7471,22 +7472,22 @@
         <v>7</v>
       </c>
       <c r="D225" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E225">
         <v>0.8</v>
       </c>
       <c r="F225" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G225">
         <v>0.2</v>
       </c>
       <c r="I225">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J225">
-        <v>7996</v>
+        <v>7379</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.25">
@@ -7497,25 +7498,25 @@
         <v>3500</v>
       </c>
       <c r="C226" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D226" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E226">
         <v>0.8</v>
       </c>
       <c r="F226" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="G226">
         <v>0.4</v>
       </c>
       <c r="I226">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="J226">
-        <v>8565</v>
+        <v>8762</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.25">
@@ -7529,27 +7530,27 @@
         <v>7</v>
       </c>
       <c r="D227" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E227">
         <v>0.8</v>
       </c>
       <c r="F227" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G227">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I227">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J227">
-        <v>4701</v>
+        <v>4569</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B228">
         <v>3500</v>
@@ -7564,16 +7565,16 @@
         <v>0.8</v>
       </c>
       <c r="F228" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G228">
         <v>0.2</v>
       </c>
       <c r="I228">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J228">
-        <v>4675</v>
+        <v>7907</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.25">
@@ -7587,51 +7588,51 @@
         <v>7</v>
       </c>
       <c r="D229" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E229">
         <v>0.7</v>
       </c>
       <c r="F229" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G229">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I229">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J229">
-        <v>9354</v>
+        <v>10789</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B230">
         <v>3500</v>
       </c>
       <c r="C230" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D230" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E230">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F230" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="G230">
         <v>0.4</v>
       </c>
       <c r="I230">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="J230">
-        <v>7858</v>
+        <v>5223</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.25">
@@ -7651,21 +7652,21 @@
         <v>0.7</v>
       </c>
       <c r="F231" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G231">
         <v>0.2</v>
       </c>
       <c r="I231">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J231">
-        <v>4695</v>
+        <v>4592</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B232">
         <v>3500</v>
@@ -7674,22 +7675,22 @@
         <v>7</v>
       </c>
       <c r="D232" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E232">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F232" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G232">
         <v>0.2</v>
       </c>
       <c r="I232">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="J232">
-        <v>4007</v>
+        <v>7217</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.25">
@@ -7703,22 +7704,22 @@
         <v>7</v>
       </c>
       <c r="D233" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E233">
         <v>0.7</v>
       </c>
       <c r="F233" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G233">
         <v>0.2</v>
       </c>
       <c r="I233">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J233">
-        <v>9287</v>
+        <v>9354</v>
       </c>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.25">
@@ -7729,30 +7730,30 @@
         <v>3500</v>
       </c>
       <c r="C234" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D234" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E234">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F234" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G234">
         <v>0.4</v>
       </c>
       <c r="I234">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J234">
-        <v>7924</v>
+        <v>7858</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B235">
         <v>3500</v>
@@ -7761,22 +7762,22 @@
         <v>7</v>
       </c>
       <c r="D235" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E235">
         <v>0.8</v>
       </c>
       <c r="F235" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G235">
         <v>0.4</v>
       </c>
       <c r="I235">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="J235">
-        <v>7832</v>
+        <v>5396</v>
       </c>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.25">
@@ -7790,22 +7791,22 @@
         <v>7</v>
       </c>
       <c r="D236" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E236">
         <v>0.7</v>
       </c>
       <c r="F236" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G236">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I236">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J236">
-        <v>3951</v>
+        <v>4626</v>
       </c>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.25">
@@ -7819,27 +7820,27 @@
         <v>7</v>
       </c>
       <c r="D237" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E237">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F237" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G237">
         <v>0.4</v>
       </c>
       <c r="I237">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J237">
-        <v>4020</v>
+        <v>4488</v>
       </c>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B238">
         <v>3500</v>
@@ -7848,27 +7849,27 @@
         <v>7</v>
       </c>
       <c r="D238" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E238">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F238" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G238">
         <v>0.4</v>
       </c>
       <c r="I238">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="J238">
-        <v>3919</v>
+        <v>7539</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B239">
         <v>3500</v>
@@ -7877,22 +7878,22 @@
         <v>7</v>
       </c>
       <c r="D239" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E239">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F239" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G239">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I239">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J239">
-        <v>10897</v>
+        <v>4007</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.25">
@@ -7906,22 +7907,22 @@
         <v>7</v>
       </c>
       <c r="D240" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E240">
         <v>0.7</v>
       </c>
       <c r="F240" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G240">
         <v>0.2</v>
       </c>
       <c r="I240">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J240">
-        <v>7455</v>
+        <v>9287</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.25">
@@ -7935,27 +7936,27 @@
         <v>7</v>
       </c>
       <c r="D241" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E241">
         <v>0.8</v>
       </c>
       <c r="F241" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G241">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I241">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="J241">
-        <v>8098</v>
+        <v>7298</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B242">
         <v>3500</v>
@@ -7964,13 +7965,13 @@
         <v>7</v>
       </c>
       <c r="D242" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E242">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F242" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G242">
         <v>0.2</v>
@@ -7979,7 +7980,7 @@
         <v>410</v>
       </c>
       <c r="J242">
-        <v>7903</v>
+        <v>3951</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.25">
@@ -7990,16 +7991,16 @@
         <v>3500</v>
       </c>
       <c r="C243" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="D243" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E243">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F243" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G243">
         <v>0.4</v>
@@ -8008,7 +8009,7 @@
         <v>410</v>
       </c>
       <c r="J243">
-        <v>8411</v>
+        <v>10897</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.25">
@@ -8022,22 +8023,22 @@
         <v>7</v>
       </c>
       <c r="D244" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E244">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F244" t="s">
         <v>10</v>
       </c>
       <c r="G244">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I244">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J244">
-        <v>3887</v>
+        <v>3919</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.25">
@@ -8051,27 +8052,27 @@
         <v>7</v>
       </c>
       <c r="D245" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E245">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F245" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="G245">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I245">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J245">
-        <v>4013</v>
+        <v>5464</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B246">
         <v>3500</v>
@@ -8080,27 +8081,27 @@
         <v>7</v>
       </c>
       <c r="D246" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E246">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F246" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G246">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I246">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J246">
-        <v>7648</v>
+        <v>4315</v>
       </c>
     </row>
     <row r="247" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B247">
         <v>3500</v>
@@ -8115,16 +8116,16 @@
         <v>0.7</v>
       </c>
       <c r="F247" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="G247">
         <v>0.4</v>
       </c>
       <c r="I247">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="J247">
-        <v>4603</v>
+        <v>7287</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.25">
@@ -8138,7 +8139,7 @@
         <v>7</v>
       </c>
       <c r="D248" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E248">
         <v>0.7</v>
@@ -8147,13 +8148,13 @@
         <v>10</v>
       </c>
       <c r="G248">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I248">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="J248">
-        <v>4062</v>
+        <v>3887</v>
       </c>
     </row>
     <row r="249" spans="1:10" x14ac:dyDescent="0.25">
@@ -8167,13 +8168,13 @@
         <v>7</v>
       </c>
       <c r="D249" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E249">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F249" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G249">
         <v>0.2</v>
@@ -8182,12 +8183,12 @@
         <v>414</v>
       </c>
       <c r="J249">
-        <v>3934</v>
+        <v>3925</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B250">
         <v>3500</v>
@@ -8196,13 +8197,13 @@
         <v>7</v>
       </c>
       <c r="D250" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E250">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="F250" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G250">
         <v>0.4</v>
@@ -8211,7 +8212,7 @@
         <v>414</v>
       </c>
       <c r="J250">
-        <v>4023</v>
+        <v>7587</v>
       </c>
     </row>
     <row r="251" spans="1:10" x14ac:dyDescent="0.25">
@@ -8225,27 +8226,27 @@
         <v>7</v>
       </c>
       <c r="D251" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E251">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F251" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G251">
-        <v>0.2</v>
+        <v>0.4</v>
       </c>
       <c r="I251">
         <v>414</v>
       </c>
       <c r="J251">
-        <v>3925</v>
+        <v>4062</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B252">
         <v>3500</v>
@@ -8254,26 +8255,26 @@
         <v>7</v>
       </c>
       <c r="D252" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E252">
         <v>0.8</v>
       </c>
       <c r="F252" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G252">
-        <v>0.4</v>
+        <v>0.2</v>
       </c>
       <c r="I252">
         <v>414</v>
       </c>
       <c r="J252">
-        <v>4092</v>
+        <v>7497</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A253">
+      <c r="A253" s="1">
         <v>200</v>
       </c>
       <c r="B253">
@@ -8283,13 +8284,13 @@
         <v>7</v>
       </c>
       <c r="D253" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E253">
         <v>0.8</v>
       </c>
       <c r="F253" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G253">
         <v>0.4</v>
@@ -8298,7 +8299,7 @@
         <v>414</v>
       </c>
       <c r="J253">
-        <v>7587</v>
+        <v>7721</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.25">
@@ -8312,13 +8313,13 @@
         <v>7</v>
       </c>
       <c r="D254" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E254">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F254" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="G254">
         <v>0.2</v>
@@ -8327,12 +8328,12 @@
         <v>414</v>
       </c>
       <c r="J254">
-        <v>7497</v>
+        <v>7239</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="B255">
         <v>3500</v>
@@ -8341,27 +8342,27 @@
         <v>7</v>
       </c>
       <c r="D255" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E255">
         <v>0.8</v>
       </c>
       <c r="F255" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="G255">
         <v>0.4</v>
       </c>
       <c r="I255">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="J255">
-        <v>7721</v>
+        <v>4114</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A256">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="B256">
         <v>3500</v>
@@ -8370,22 +8371,22 @@
         <v>7</v>
       </c>
       <c r="D256" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E256">
         <v>0.8</v>
       </c>
       <c r="F256" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="G256">
         <v>0.4</v>
       </c>
       <c r="I256">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="J256">
-        <v>3956</v>
+        <v>7258</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.25">
@@ -8399,13 +8400,13 @@
         <v>7</v>
       </c>
       <c r="D257" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E257">
         <v>0.8</v>
       </c>
       <c r="F257" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="G257">
         <v>0.4</v>
@@ -8414,7 +8415,7 @@
         <v>418</v>
       </c>
       <c r="J257">
-        <v>4011</v>
+        <v>3956</v>
       </c>
     </row>
     <row r="258" spans="1:10" x14ac:dyDescent="0.25">
@@ -8428,22 +8429,22 @@
         <v>7</v>
       </c>
       <c r="D258" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E258">
         <v>0.8</v>
       </c>
       <c r="F258" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="G258">
         <v>0.2</v>
       </c>
       <c r="I258">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="J258">
-        <v>4043</v>
+        <v>4202</v>
       </c>
     </row>
   </sheetData>
